--- a/Sample Data File/MappingFaculty_OriginalData.xlsx
+++ b/Sample Data File/MappingFaculty_OriginalData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RDBMS\ARP DATA\Data Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\arp_\Sample Data File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC66B12-7281-4993-A619-EED6CF85660D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9150FF-2C02-488A-AF9D-6BD7CDE6A109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{7D3FE9B7-6610-42F8-BCFA-F1D64A857B15}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>No.</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Dr. Padmasudha</t>
   </si>
   <si>
-    <t>Dr. Chandreshekhar</t>
-  </si>
-  <si>
     <t>Dr. Gopal R</t>
   </si>
   <si>
@@ -65,15 +62,6 @@
     <t>Slot Name</t>
   </si>
   <si>
-    <t>L7+L8</t>
-  </si>
-  <si>
-    <t>Python Programming</t>
-  </si>
-  <si>
-    <t>CSE1021</t>
-  </si>
-  <si>
     <t>Mappiny Year</t>
   </si>
   <si>
@@ -83,21 +71,9 @@
     <t>FALL</t>
   </si>
   <si>
-    <t>L39+L40</t>
-  </si>
-  <si>
     <t>MAT5007</t>
   </si>
   <si>
-    <t>MAT5006</t>
-  </si>
-  <si>
-    <t>Time Series Analysis</t>
-  </si>
-  <si>
-    <t>Mathematics for Data Science</t>
-  </si>
-  <si>
     <t>CSE5006</t>
   </si>
   <si>
@@ -107,9 +83,6 @@
     <t>G1</t>
   </si>
   <si>
-    <t>CSE5066</t>
-  </si>
-  <si>
     <t>B1</t>
   </si>
   <si>
@@ -117,13 +90,82 @@
   </si>
   <si>
     <t>Research Methodologies</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>L23 + L24</t>
+  </si>
+  <si>
+    <t>L3 + L4</t>
+  </si>
+  <si>
+    <t>L19 + L20</t>
+  </si>
+  <si>
+    <t>L21 + L22</t>
+  </si>
+  <si>
+    <t>L29 + L30</t>
+  </si>
+  <si>
+    <t>L35 + L36</t>
+  </si>
+  <si>
+    <t>L39 + L40</t>
+  </si>
+  <si>
+    <t>MAT5009</t>
+  </si>
+  <si>
+    <t>CSE5053</t>
+  </si>
+  <si>
+    <t>CSE5010</t>
+  </si>
+  <si>
+    <t>SCE5066</t>
+  </si>
+  <si>
+    <t>ENG5002</t>
+  </si>
+  <si>
+    <t>Advanced Python</t>
+  </si>
+  <si>
+    <t>Cloud Infrastructure, Services and APIs</t>
+  </si>
+  <si>
+    <t>Mathematics for Data Sciences</t>
+  </si>
+  <si>
+    <t>Applied Statistics Using R</t>
+  </si>
+  <si>
+    <t>Dr. Chandrashekhar B N</t>
+  </si>
+  <si>
+    <t>Dr. Nandha Kumar K G</t>
+  </si>
+  <si>
+    <t>Ms. Neethu Tressa</t>
+  </si>
+  <si>
+    <t>Mr. Mohan</t>
+  </si>
+  <si>
+    <t>Mr. Abirlal Mukherjee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,18 +180,12 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -164,7 +200,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -187,75 +223,35 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -592,20 +588,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E31926-3C60-444F-9410-D832235ADECD}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection sqref="A1:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -614,182 +610,338 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>314664</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>336541</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="F2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="7">
+        <v>2025</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>314664</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7">
+        <v>2025</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>312777</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2025</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>312777</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2025</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="B6" s="4">
+        <v>316179</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7">
+        <v>2025</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>316179</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2025</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>315034</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2025</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>314109</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2025</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>315814</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2025</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>315814</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2025</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>315032</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="7">
-        <v>2025</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>345345</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="G12" s="7">
+        <v>2025</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>315032</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="7">
-        <v>2025</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>654453</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="7">
-        <v>2025</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6">
-        <v>654453</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="7">
-        <v>2025</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6">
-        <v>336541</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="7">
-        <v>2025</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6">
-        <v>336541</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="7">
-        <v>2025</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>14</v>
+      <c r="G13" s="7">
+        <v>2025</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
